--- a/U2000-1121.xlsx
+++ b/U2000-1121.xlsx
@@ -39,9 +39,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>set counter</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
@@ -76,19 +73,29 @@
   </si>
   <si>
     <t>software installation</t>
+  </si>
+  <si>
+    <t>中文 不行吗</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Adobe 楷体 Std R"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +455,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -469,32 +477,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -502,16 +510,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -519,16 +527,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -536,36 +544,36 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
